--- a/trekking1.xlsx
+++ b/trekking1.xlsx
@@ -5,11 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Справочник" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Раскладка" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">ККал на 100</t>
   </si>
@@ -144,12 +143,6 @@
   </si>
   <si>
     <t xml:space="preserve">Кус Кус</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Продукт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вес в граммах</t>
   </si>
 </sst>
 </file>
@@ -265,8 +258,8 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -899,137 +892,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>